--- a/项目数据.xlsx
+++ b/项目数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="菜单" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,858 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="220">
   <si>
+    <t>厚切鲜嫩牛柳扒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁板黑椒牛扒拼鸡皇扒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡朋大杂扒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥尔良烤鸡配薯条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果木嫩肩牛扒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特级西冷扒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻辣牛扒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美式肩胛牛扒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香橙三文鱼扒芥末籽汁配香草薯泥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山贼酱烧美式猪小排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美式雪花牛肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚切澳洲特级牛小排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扒类系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔夫沙律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东南亚薄荷牛肉沙律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手摇凯撒沙律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜果沙律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德国冻猪手芥辣汁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰式酸辣凤爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉拌青瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆浆Q弹豆捞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中华海草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主食系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑椒洋葱牛肉粒烩饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍珠蚝肉碎泡饭配印尼虾片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蟹籽猪颈肉炒饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家宝藏虾仁炒饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰味海鲜炒饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆立贝木鱼丝炒饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩式泡菜牛肉炒饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡朋特色炒饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝士焗猪扒饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝士焗海鲜饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝士蘑菇牛柳焗饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝士蘑菇牛柳焗饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑椒牛柳丝意大利面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑椒鸡扒炒乌冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意式芝香培根肉酱意大利面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤番茄肉酱通心面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡朋皇牌海鲜炒意大利面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>川辣海鲜烩通心面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪扒汤乌冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬阴功海鲜乌冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级海鲜PIZZA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榴莲忘返浓味PIZZA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻辣黑椒牛肉PIZZA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒果吐司金字塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚炸冰多士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法兰西多士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒜香西兰花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马拉盏炒长豆角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白灼西生菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑胡椒焗大虾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰式黑椒猪颈肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香草牛油扒白菌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小炒系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小食系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美极鸭舌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椒盐鲜鱿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥尔良鸡翅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香炸白饭鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照烧原只鱿鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香煎多春鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盐酥鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香煎秋刀鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焗芝士番薯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸薯条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金蟹脚棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>象牙虾棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粟米忌廉汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇忌廉汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜榨苹果汁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜榨西瓜汁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂蜜芦荟绿茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满杯鲜橙苏打</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港式奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满杯草莓苏打</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港式柠檬茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满杯西柚苏打</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜芒益力多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒果百香清茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦糖拿铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一颗柠檬茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上瘾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛油果+芒果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒果布丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜果焦糖吉士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇芒相思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧克力岩浆蛋糕配雪糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双桃抹茶慕斯蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸雪糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意式甜筒冰淇淋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柑橘柠檬蜜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑加仑子益力多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡朋珍珠奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缤纷鲜果茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑加仑子苏打</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛油果+香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛油果+榴莲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛夏黄金岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招牌冰咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原只木瓜炖雪蛤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木瓜布蕾奶奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薄荷芒芒奶昔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛油果椰椰椰椰椰奶昔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨枝甘露满泻蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛油果烤鸡精选沙律配酸奶汁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新西兰奶油大虾烩意粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火山岩烧澳洲厚切扒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火山岩烧谷饲牛小扒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十三香小龙虾炒饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨西哥塔可价十三香小龙虾肉PIZZA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋黄君蜜汁鸡中翼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋黄君蜜汁小食双拼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沐浴小猪猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江南大道店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>较场西路店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花都来又来店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒宝广场店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新光广场店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>289艺术园店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈福缤纷汇店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五号停机坪店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西门口店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周沫东圃店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周沫广百店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周沫漫广场店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周沫同和店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铂顿城店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南海新都荟店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方广场店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺德大信店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡多多嘉洲广场店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡多多三水广场店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利和广场店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬名广场店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙华壹方天地店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周沫锦艺城店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>020-34042630</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海珠区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海珠区江南大道中255号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海珠区东晓南路1290号海珠新都荟三楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>020-34411848</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海珠新都荟店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江南新地店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江南西路46号江南新地商业街A20B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>020-84243529</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越秀区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越秀区较场西路16号二楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>020-83813235</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越秀区广州大道中289号289艺术园区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越秀区中山六路242-248号三层自编号302单元房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>020-83889383</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>020-81179232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荔湾区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荔湾区宝华路133号恒宝广场3F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>020-81178087</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荔湾区康王中路654号新光城市广场5楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>020-81274363</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天河区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳新天地店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天河区马场路36号太阳新天地（809-810）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>020-37252029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白云区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市白云区云霄路353栋五号停机坪二层L2039N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>020-36775125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花都区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花都区新华街龙珠路39号来又来广场二楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>020-36968371</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>番禺区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>番禺区名家一街53号祈福缤纷汇一楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>020-37884615</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛溪新城店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>番禺区洛浦街洛西新城如意三马路193号新地购物广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>020-31102207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周沫白云汇店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白云区黄石东路88号5层自编501号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>020-31230254</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山禅城建新路111号铂顿城2F-019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0757-82900332</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山禅城文龙街14号翡翠城组团B1楼A01号A座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0757-82035593</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅城区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南海区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0757-85563963</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺德区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺德大良德和居委会新城区彩虹路1号大信新都汇顺德店4层L4006号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0757-22681185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山市银通街利和广场利和新地2楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0760-88311253</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香洲区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠海市香洲区凤凰南路1066号扬名广场二期5楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0756-6162007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州天河区中山大道1242号漫广场四楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>020-89857551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越秀区北京街道西湖路18号广百百货新翼9楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>020-36660419</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天河区中山大道中282号东圃商业大厦A座聚时代星座广场二楼205周沫西餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>020-32038806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白云区同和大街1号金铂广场A202铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>020-31216367</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南海区大沥镇金贸大道2号南海新都荟4楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市南海区大沥镇黄岐一路98号嘉洲广场三楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0757-85920662</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三水区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市三水区西南街张边路9号三水广场一期2楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>铁板猪颈扒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -29,871 +881,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>厚切鲜嫩牛柳扒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁板黑椒牛扒拼鸡皇扒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡朋大杂扒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥尔良烤鸡配薯条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>果木嫩肩牛扒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特级西冷扒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻辣牛扒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美式肩胛牛扒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香橙三文鱼扒芥末籽汁配香草薯泥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山贼酱烧美式猪小排</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美式雪花牛肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厚切澳洲特级牛小排</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扒类系列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渔夫沙律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东南亚薄荷牛肉沙律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手摇凯撒沙律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲜果沙律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>沙拉&amp;前菜系列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>德国冻猪手芥辣汁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蟹肉配墨鱼汁博饼青苹果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰式酸辣凤爪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凉拌青瓜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆浆Q弹豆捞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中华海草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主食系列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑椒洋葱牛肉粒烩饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>珍珠蚝肉碎泡饭配印尼虾片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蟹籽猪颈肉炒饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家宝藏虾仁炒饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰味海鲜炒饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帆立贝木鱼丝炒饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩式泡菜牛肉炒饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡朋特色炒饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芝士焗猪扒饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芝士焗海鲜饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芝士蘑菇牛柳焗饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芝士蘑菇牛柳焗饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑椒牛柳丝意大利面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑椒鸡扒炒乌冬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意式芝香培根肉酱意大利面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烤番茄肉酱通心面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡朋皇牌海鲜炒意大利面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>川辣海鲜烩通心面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪扒汤乌冬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬阴功海鲜乌冬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级海鲜PIZZA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>榴莲忘返浓味PIZZA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻辣黑椒牛肉PIZZA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芒果吐司金字塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厚炸冰多士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法兰西多士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒜香西兰花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马拉盏炒长豆角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白灼西生菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑胡椒焗大虾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰式黑椒猪颈肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香草牛油扒白菌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小炒系列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小食系列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美极鸭舌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>椒盐鲜鱿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥尔良鸡翅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香炸白饭鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>照烧原只鱿鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香煎多春鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盐酥鸡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香煎秋刀鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焗芝士番薯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸薯条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金蟹脚棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>象牙虾棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>饮品系列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>南瓜汤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粟米忌廉汤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑菇忌廉汤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲜榨苹果汁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲜榨西瓜汁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜂蜜芦荟绿茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满杯鲜橙苏打</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>港式奶茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满杯草莓苏打</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>港式柠檬茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满杯西柚苏打</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲜芒益力多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芒果百香清茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦糖拿铁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一颗柠檬茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上瘾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛油果+芒果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>甜品系列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>芒果布丁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲜果焦糖吉士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奇芒相思</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巧克力岩浆蛋糕配雪糕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双桃抹茶慕斯蛋糕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸雪糕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意式甜筒冰淇淋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柑橘柠檬蜜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑加仑子益力多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡朋珍珠奶茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缤纷鲜果茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑加仑子苏打</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛油果+香蕉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛油果+榴莲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盛夏黄金岛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招牌冰咖啡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原只木瓜炖雪蛤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木瓜布蕾奶奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>薄荷芒芒奶昔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛油果椰椰椰椰椰奶昔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨枝甘露满泻蛋糕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛油果烤鸡精选沙律配酸奶汁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新西兰奶油大虾烩意粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火山岩烧澳洲厚切扒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火山岩烧谷饲牛小扒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十三香小龙虾炒饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>墨西哥塔可价十三香小龙虾肉PIZZA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋黄君蜜汁鸡中翼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋黄君蜜汁小食双拼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沐浴小猪猪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江南大道店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>较场西路店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花都来又来店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恒宝广场店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新光广场店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>289艺术园店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祈福缤纷汇店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五号停机坪店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西门口店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周沫东圃店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周沫广百店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周沫漫广场店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周沫同和店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铂顿城店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南海新都荟店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东方广场店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺德大信店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡多多嘉洲广场店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡多多三水广场店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利和广场店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>珠海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扬名广场店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙华壹方天地店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周沫锦艺城店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>020-34042630</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠区江南大道中255号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠区东晓南路1290号海珠新都荟三楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>020-34411848</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海珠新都荟店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江南新地店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江南西路46号江南新地商业街A20B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>020-84243529</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>越秀区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>越秀区较场西路16号二楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>020-83813235</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>越秀区广州大道中289号289艺术园区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>越秀区中山六路242-248号三层自编号302单元房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>020-83889383</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>020-81179232</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荔湾区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荔湾区宝华路133号恒宝广场3F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>020-81178087</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荔湾区康王中路654号新光城市广场5楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>020-81274363</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天河区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳新天地店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天河区马场路36号太阳新天地（809-810）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>020-37252029</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白云区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州市白云区云霄路353栋五号停机坪二层L2039N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>020-36775125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花都区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花都区新华街龙珠路39号来又来广场二楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>020-36968371</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>番禺区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>番禺区名家一街53号祈福缤纷汇一楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>020-37884615</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛溪新城店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>番禺区洛浦街洛西新城如意三马路193号新地购物广场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>020-31102207</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周沫白云汇店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白云区黄石东路88号5层自编501号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>020-31230254</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山禅城建新路111号铂顿城2F-019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0757-82900332</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山禅城文龙街14号翡翠城组团B1楼A01号A座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0757-82035593</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禅城区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南海区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0757-85563963</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺德区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺德大良德和居委会新城区彩虹路1号大信新都汇顺德店4层L4006号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0757-22681185</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中山市银通街利和广场利和新地2楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0760-88311253</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香洲区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>珠海市香洲区凤凰南路1066号扬名广场二期5楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0756-6162007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州天河区中山大道1242号漫广场四楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>020-89857551</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>越秀区北京街道西湖路18号广百百货新翼9楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>020-36660419</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天河区中山大道中282号东圃商业大厦A座聚时代星座广场二楼205周沫西餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>020-32038806</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白云区同和大街1号金铂广场A202铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>020-31216367</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南海区大沥镇金贸大道2号南海新都荟4楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山市南海区大沥镇黄岐一路98号嘉洲广场三楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0757-85920662</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三水区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山市三水区西南街张边路9号三水广场一期2楼</t>
+    <t>蟹肉配墨鱼汁薄饼青苹果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1245,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1257,10 +1257,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="C1">
         <v>39</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="C2">
         <v>78</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>2</v>
+        <v>215</v>
       </c>
       <c r="C3">
         <v>39</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>59</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>42</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>46</v>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>42</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>49</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>49</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>56</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>59</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>63</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>68</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>88</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>108</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C16">
         <v>69</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C17">
         <v>108</v>
@@ -1396,10 +1396,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>26</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>36</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>29</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C21">
         <v>21</v>
@@ -1431,98 +1431,98 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="C28">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30">
         <v>29</v>
-      </c>
-      <c r="C30">
-        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33">
         <v>29</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34">
         <v>29</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35">
         <v>32</v>
@@ -1546,23 +1546,23 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="C38">
         <v>32</v>
@@ -1570,31 +1570,31 @@
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C39">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C40">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="C41">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C42">
         <v>29</v>
@@ -1602,157 +1602,160 @@
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="C44">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C45">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C46">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="C47">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C48">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C49">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C50">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C51">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C52">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C53">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="C54">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C55">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C56">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C57">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>60</v>
-      </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C58">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C59">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
         <v>56</v>
       </c>
-      <c r="C60">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
         <v>57</v>
       </c>
       <c r="C61">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -1760,7 +1763,7 @@
         <v>58</v>
       </c>
       <c r="C62">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -1768,130 +1771,127 @@
         <v>59</v>
       </c>
       <c r="C63">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>61</v>
-      </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C64">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C65">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C66">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C67">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C68">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C69">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C70">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C71">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C72">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="C73">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="C76">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="C77">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C78">
         <v>13</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C79">
         <v>13</v>
@@ -1907,23 +1907,23 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C80">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C81">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C82">
         <v>16</v>
@@ -1931,76 +1931,76 @@
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C83">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C84">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C85">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C86">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C87">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C88">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
-        <v>85</v>
-      </c>
-      <c r="C89">
-        <v>23</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="C90">
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C91">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C92">
         <v>19</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C93">
         <v>19</v>
@@ -2016,15 +2016,15 @@
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C94">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C95">
         <v>16</v>
@@ -2032,15 +2032,15 @@
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C96">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C97">
         <v>23</v>
@@ -2048,157 +2048,154 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C98">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C99">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C100">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C101">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C102">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C103">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C104">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C105">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>92</v>
+        <v>218</v>
       </c>
       <c r="B106" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C106">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C107">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C108">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C109">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C110">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C111">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B112" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C112">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C113">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B114" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C114">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B115" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C115">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
-        <v>122</v>
-      </c>
-      <c r="C116">
-        <v>26</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2212,7 +2209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -2225,352 +2222,352 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E11" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E12" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E13" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D14" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E14" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E15" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E16" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E17" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D18" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E18" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E19" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E20" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E22" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D24" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C25" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D25" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E25" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B26" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C26" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E26" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
